--- a/rawfiles/m_scopus_col_cou_atributos2.xlsx
+++ b/rawfiles/m_scopus_col_cou_atributos2.xlsx
@@ -56,64 +56,64 @@
     <t xml:space="preserve">France</t>
   </si>
   <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
     <t xml:space="preserve">Colombia</t>
   </si>
   <si>
     <t xml:space="preserve">Germany</t>
   </si>
   <si>
-    <t xml:space="preserve">China</t>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
   </si>
   <si>
     <t xml:space="preserve">Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Ecuador</t>
-  </si>
-  <si>
     <t xml:space="preserve">Spain</t>
   </si>
   <si>
     <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Czech Republic</t>
   </si>
   <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
     <t xml:space="preserve">New Zealand</t>
   </si>
   <si>
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">South Korea</t>
+  </si>
+  <si>
     <t xml:space="preserve">Venezuela</t>
   </si>
   <si>
     <t xml:space="preserve">Austria</t>
   </si>
   <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Korea</t>
   </si>
   <si>
     <t xml:space="preserve">Argentina</t>
@@ -533,22 +533,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C2" t="n">
-        <v>78098</v>
+        <v>85069</v>
       </c>
       <c r="D2" t="n">
-        <v>624.784</v>
+        <v>620.941605839416</v>
       </c>
       <c r="E2" t="n">
         <v>84</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0138888888888889</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="G2" t="n">
-        <v>39.1716319977663</v>
+        <v>38.5511139537363</v>
       </c>
     </row>
     <row r="3">
@@ -556,13 +556,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>60938</v>
+        <v>61509</v>
       </c>
       <c r="D3" t="n">
-        <v>1243.63265306122</v>
+        <v>1230.18</v>
       </c>
       <c r="E3" t="n">
         <v>82</v>
@@ -571,7 +571,7 @@
         <v>0.0140845070422535</v>
       </c>
       <c r="G3" t="n">
-        <v>43.9277777777778</v>
+        <v>37.7388888888889</v>
       </c>
     </row>
     <row r="4">
@@ -579,13 +579,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>10447</v>
+        <v>10777</v>
       </c>
       <c r="D4" t="n">
-        <v>522.35</v>
+        <v>468.565217391304</v>
       </c>
       <c r="E4" t="n">
         <v>18</v>
@@ -594,7 +594,7 @@
         <v>0.0112359550561798</v>
       </c>
       <c r="G4" t="n">
-        <v>88.8888888888889</v>
+        <v>88.7222222222222</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>13521</v>
+        <v>17367</v>
       </c>
       <c r="D5" t="n">
-        <v>901.4</v>
+        <v>964.833333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0151515151515152</v>
       </c>
       <c r="G5" t="n">
-        <v>56.253582453038</v>
+        <v>84.5340186090426</v>
       </c>
     </row>
     <row r="6">
@@ -625,22 +625,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>9394</v>
+        <v>11818</v>
       </c>
       <c r="D6" t="n">
-        <v>782.833333333333</v>
+        <v>844.142857142857</v>
       </c>
       <c r="E6" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0149253731343284</v>
       </c>
       <c r="G6" t="n">
-        <v>34.5834211682038</v>
+        <v>47.1365800865801</v>
       </c>
     </row>
     <row r="7">
@@ -648,22 +648,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>9174</v>
+        <v>9937</v>
       </c>
       <c r="D7" t="n">
-        <v>834</v>
+        <v>828.083333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0126582278481013</v>
+        <v>0.0128205128205128</v>
       </c>
       <c r="G7" t="n">
-        <v>3.23598845598846</v>
+        <v>6.69341073996247</v>
       </c>
     </row>
     <row r="8">
@@ -686,7 +686,7 @@
         <v>0.0158730158730159</v>
       </c>
       <c r="G8" t="n">
-        <v>124.058180530377</v>
+        <v>108.881289249943</v>
       </c>
     </row>
     <row r="9">
@@ -697,19 +697,19 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>10689</v>
+        <v>23649</v>
       </c>
       <c r="D9" t="n">
-        <v>1187.66666666667</v>
+        <v>2627.66666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0131578947368421</v>
+        <v>0.0149253731343284</v>
       </c>
       <c r="G9" t="n">
-        <v>33.0499033163239</v>
+        <v>31.4456866804693</v>
       </c>
     </row>
     <row r="10">
@@ -717,22 +717,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>4335</v>
+        <v>10689</v>
       </c>
       <c r="D10" t="n">
-        <v>541.875</v>
+        <v>1187.66666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0153846153846154</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="G10" t="n">
-        <v>39.1678540201872</v>
+        <v>22.2944990863186</v>
       </c>
     </row>
     <row r="11">
@@ -740,22 +740,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>17310</v>
+        <v>4335</v>
       </c>
       <c r="D11" t="n">
-        <v>2885</v>
+        <v>541.875</v>
       </c>
       <c r="E11" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F11" t="n">
         <v>0.0153846153846154</v>
       </c>
       <c r="G11" t="n">
-        <v>41.0636482510624</v>
+        <v>37.8540091270262</v>
       </c>
     </row>
     <row r="12">
@@ -763,22 +763,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>12491</v>
+        <v>3395</v>
       </c>
       <c r="D12" t="n">
-        <v>2081.83333333333</v>
+        <v>424.375</v>
       </c>
       <c r="E12" t="n">
         <v>76</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0161290322580645</v>
+        <v>0.015625</v>
       </c>
       <c r="G12" t="n">
-        <v>54.795554267751</v>
+        <v>45.6318181818182</v>
       </c>
     </row>
     <row r="13">
@@ -786,22 +786,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>2219</v>
+        <v>4643</v>
       </c>
       <c r="D13" t="n">
-        <v>369.833333333333</v>
+        <v>580.375</v>
       </c>
       <c r="E13" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0149253731343284</v>
       </c>
       <c r="G13" t="n">
-        <v>1.27998217857284</v>
+        <v>17.5799535229449</v>
       </c>
     </row>
     <row r="14">
@@ -809,22 +809,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>3244</v>
+        <v>12491</v>
       </c>
       <c r="D14" t="n">
-        <v>648.8</v>
+        <v>2081.83333333333</v>
       </c>
       <c r="E14" t="n">
         <v>76</v>
       </c>
       <c r="F14" t="n">
-        <v>0.015625</v>
+        <v>0.0161290322580645</v>
       </c>
       <c r="G14" t="n">
-        <v>43.9881830729657</v>
+        <v>54.7196405044231</v>
       </c>
     </row>
     <row r="15">
@@ -832,13 +832,13 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>5913</v>
+        <v>4708</v>
       </c>
       <c r="D15" t="n">
-        <v>1478.25</v>
+        <v>941.6</v>
       </c>
       <c r="E15" t="n">
         <v>58</v>
@@ -847,7 +847,7 @@
         <v>0.0144927536231884</v>
       </c>
       <c r="G15" t="n">
-        <v>2.75118824926581</v>
+        <v>1.4169540881863</v>
       </c>
     </row>
     <row r="16">
@@ -855,22 +855,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>2313</v>
+        <v>3974</v>
       </c>
       <c r="D16" t="n">
-        <v>578.25</v>
+        <v>794.8</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0112359550561798</v>
+        <v>0.0116279069767442</v>
       </c>
       <c r="G16" t="n">
-        <v>2.30122655122655</v>
+        <v>5.10958492602918</v>
       </c>
     </row>
     <row r="17">
@@ -881,19 +881,19 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>6124</v>
+        <v>5913</v>
       </c>
       <c r="D17" t="n">
-        <v>1531</v>
+        <v>1478.25</v>
       </c>
       <c r="E17" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0138888888888889</v>
+        <v>0.0144927536231884</v>
       </c>
       <c r="G17" t="n">
-        <v>62.9330521191695</v>
+        <v>2.75781996331851</v>
       </c>
     </row>
     <row r="18">
@@ -904,19 +904,19 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>5204</v>
+        <v>6124</v>
       </c>
       <c r="D18" t="n">
-        <v>1301</v>
+        <v>1531</v>
       </c>
       <c r="E18" t="n">
         <v>38</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0131578947368421</v>
+        <v>0.0138888888888889</v>
       </c>
       <c r="G18" t="n">
-        <v>30.580991114149</v>
+        <v>62.6487024937731</v>
       </c>
     </row>
     <row r="19">
@@ -924,22 +924,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>3739</v>
+        <v>5204</v>
       </c>
       <c r="D19" t="n">
-        <v>1246.33333333333</v>
+        <v>1301</v>
       </c>
       <c r="E19" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0153846153846154</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="G19" t="n">
-        <v>4.98488964622009</v>
+        <v>31.1337154016593</v>
       </c>
     </row>
     <row r="20">
@@ -950,19 +950,19 @@
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>2517</v>
+        <v>3724</v>
       </c>
       <c r="D20" t="n">
-        <v>839</v>
+        <v>1241.33333333333</v>
       </c>
       <c r="E20" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="G20" t="n">
-        <v>1.77852487020857</v>
+        <v>50.2620647468474</v>
       </c>
     </row>
     <row r="21">
@@ -973,19 +973,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>2262</v>
+        <v>3591</v>
       </c>
       <c r="D21" t="n">
-        <v>754</v>
+        <v>1197</v>
       </c>
       <c r="E21" t="n">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.0116279069767442</v>
       </c>
       <c r="G21" t="n">
-        <v>2.04963598131968</v>
+        <v>8.58236703486426</v>
       </c>
     </row>
     <row r="22">
@@ -996,19 +996,19 @@
         <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>3785</v>
+        <v>3739</v>
       </c>
       <c r="D22" t="n">
-        <v>1261.66666666667</v>
+        <v>1246.33333333333</v>
       </c>
       <c r="E22" t="n">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0161290322580645</v>
+        <v>0.0153846153846154</v>
       </c>
       <c r="G22" t="n">
-        <v>54.795554267751</v>
+        <v>5.11639170711522</v>
       </c>
     </row>
     <row r="23">
@@ -1019,19 +1019,19 @@
         <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>1675</v>
+        <v>2262</v>
       </c>
       <c r="D23" t="n">
-        <v>558.333333333333</v>
+        <v>754</v>
       </c>
       <c r="E23" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0161290322580645</v>
+        <v>0.0147058823529412</v>
       </c>
       <c r="G23" t="n">
-        <v>168.644481393358</v>
+        <v>2.18142278705569</v>
       </c>
     </row>
     <row r="24">
@@ -1039,22 +1039,22 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>2260</v>
+        <v>3785</v>
       </c>
       <c r="D24" t="n">
-        <v>1130</v>
+        <v>1261.66666666667</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0103092783505155</v>
+        <v>0.0161290322580645</v>
       </c>
       <c r="G24" t="n">
-        <v>0.264957264957265</v>
+        <v>54.7196405044231</v>
       </c>
     </row>
     <row r="25">
@@ -1062,22 +1062,22 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>2989</v>
+        <v>3009</v>
       </c>
       <c r="D25" t="n">
-        <v>1494.5</v>
+        <v>1003</v>
       </c>
       <c r="E25" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0161290322580645</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="G25" t="n">
-        <v>54.795554267751</v>
+        <v>95.8754773792162</v>
       </c>
     </row>
     <row r="26">
@@ -1085,22 +1085,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>2862</v>
+        <v>1675</v>
       </c>
       <c r="D26" t="n">
-        <v>1431</v>
+        <v>558.333333333333</v>
       </c>
       <c r="E26" t="n">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0113636363636364</v>
+        <v>0.0161290322580645</v>
       </c>
       <c r="G26" t="n">
-        <v>6.2922502334267</v>
+        <v>141.549317400469</v>
       </c>
     </row>
     <row r="27">
@@ -1111,19 +1111,19 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>2260</v>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
+        <v>1130</v>
       </c>
       <c r="E27" t="n">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
-        <v>0.015625</v>
+        <v>0.0105263157894737</v>
       </c>
       <c r="G27" t="n">
-        <v>5.48873565102518</v>
+        <v>0.288766788766789</v>
       </c>
     </row>
     <row r="28">
@@ -1134,19 +1134,19 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>2989</v>
+        <v>40</v>
       </c>
       <c r="D28" t="n">
-        <v>1494.5</v>
+        <v>20</v>
       </c>
       <c r="E28" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0138888888888889</v>
+        <v>0.015625</v>
       </c>
       <c r="G28" t="n">
-        <v>96.7741422710849</v>
+        <v>5.62419028109027</v>
       </c>
     </row>
     <row r="29">
@@ -1192,7 +1192,7 @@
         <v>0.0136986301369863</v>
       </c>
       <c r="G30" t="n">
-        <v>8.77414227108484</v>
+        <v>9.45682001319036</v>
       </c>
     </row>
     <row r="31">
@@ -1215,7 +1215,7 @@
         <v>0.0158730158730159</v>
       </c>
       <c r="G31" t="n">
-        <v>7.83994726043044</v>
+        <v>8.11765578585553</v>
       </c>
     </row>
     <row r="32">
@@ -1238,7 +1238,7 @@
         <v>0.0158730158730159</v>
       </c>
       <c r="G32" t="n">
-        <v>7.83994726043044</v>
+        <v>8.11765578585553</v>
       </c>
     </row>
     <row r="33">
@@ -1261,7 +1261,7 @@
         <v>0.0158730158730159</v>
       </c>
       <c r="G33" t="n">
-        <v>7.83994726043044</v>
+        <v>8.11765578585553</v>
       </c>
     </row>
     <row r="34">
@@ -1307,7 +1307,7 @@
         <v>0.0158730158730159</v>
       </c>
       <c r="G35" t="n">
-        <v>7.83994726043044</v>
+        <v>8.11765578585553</v>
       </c>
     </row>
     <row r="36">
@@ -1330,7 +1330,7 @@
         <v>0.0158730158730159</v>
       </c>
       <c r="G36" t="n">
-        <v>7.83994726043044</v>
+        <v>8.11765578585553</v>
       </c>
     </row>
     <row r="37">
@@ -1353,7 +1353,7 @@
         <v>0.0136986301369863</v>
       </c>
       <c r="G37" t="n">
-        <v>8.77414227108484</v>
+        <v>9.45682001319036</v>
       </c>
     </row>
     <row r="38">
@@ -1376,7 +1376,7 @@
         <v>0.0158730158730159</v>
       </c>
       <c r="G38" t="n">
-        <v>7.83994726043044</v>
+        <v>8.11765578585553</v>
       </c>
     </row>
     <row r="39">
@@ -1399,7 +1399,7 @@
         <v>0.0158730158730159</v>
       </c>
       <c r="G39" t="n">
-        <v>7.83994726043044</v>
+        <v>8.11765578585553</v>
       </c>
     </row>
     <row r="40">
@@ -1422,7 +1422,7 @@
         <v>0.0158730158730159</v>
       </c>
       <c r="G40" t="n">
-        <v>7.83994726043044</v>
+        <v>8.11765578585553</v>
       </c>
     </row>
     <row r="41">
@@ -1445,7 +1445,7 @@
         <v>0.0136986301369863</v>
       </c>
       <c r="G41" t="n">
-        <v>8.77414227108484</v>
+        <v>9.45682001319036</v>
       </c>
     </row>
     <row r="42">
@@ -1465,7 +1465,7 @@
         <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00862068965517241</v>
+        <v>0.00854700854700855</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0.0158730158730159</v>
       </c>
       <c r="G43" t="n">
-        <v>7.83994726043044</v>
+        <v>8.11765578585553</v>
       </c>
     </row>
     <row r="44">
@@ -1514,7 +1514,7 @@
         <v>0.0158730158730159</v>
       </c>
       <c r="G44" t="n">
-        <v>7.83994726043044</v>
+        <v>8.11765578585553</v>
       </c>
     </row>
     <row r="45">
@@ -1537,7 +1537,7 @@
         <v>0.0158730158730159</v>
       </c>
       <c r="G45" t="n">
-        <v>7.83994726043044</v>
+        <v>8.11765578585553</v>
       </c>
     </row>
     <row r="46">
@@ -1560,7 +1560,7 @@
         <v>0.0136986301369863</v>
       </c>
       <c r="G46" t="n">
-        <v>8.77414227108484</v>
+        <v>9.45682001319036</v>
       </c>
     </row>
     <row r="47">
@@ -1583,7 +1583,7 @@
         <v>0.0158730158730159</v>
       </c>
       <c r="G47" t="n">
-        <v>7.83994726043044</v>
+        <v>8.11765578585553</v>
       </c>
     </row>
     <row r="48">
